--- a/page/eb03/w02/eb03-w02.xlsx
+++ b/page/eb03/w02/eb03-w02.xlsx
@@ -736,7 +736,7 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+      <selection activeCell="L19" sqref="L2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
